--- a/data/inputs/Solar PV production import.xlsx
+++ b/data/inputs/Solar PV production import.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f848303f8635085/01. Master thesis/03.LCI import files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treyer_k\Documents\GitHub\moeschpond\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{2A31CD4D-FA13-4CA2-9CCC-D831CE09255A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D69CFD7A-9D78-4122-A00F-DF9E63D753C7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{E6EB341C-E9A0-49EE-BC68-30D8DE9B79D6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Refined Single-Si" sheetId="4" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Refined Single-Si (2)" sheetId="11" r:id="rId4"/>
     <sheet name="Refined Multi-Si (2)" sheetId="12" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4764" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4764" uniqueCount="284">
   <si>
     <t>cutoff</t>
   </si>
@@ -888,11 +887,17 @@
   <si>
     <t xml:space="preserve"> treatment of waste plastic, mixture, sanitary landfill</t>
   </si>
+  <si>
+    <t>market for copper, anode</t>
+  </si>
+  <si>
+    <t>ei 3.8 cutoff</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
     <numFmt numFmtId="165" formatCode="0.00E+0;[=0]&quot;-&quot;;0.00E+0"/>
@@ -1062,8 +1067,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2 3" xfId="2" xr:uid="{8A4A4B1B-9D5A-4090-9E96-7FF19108940D}"/>
-    <cellStyle name="wissenschaft-Eingabe 2" xfId="1" xr:uid="{E2381E71-ADF9-4999-998E-84AF0341D185}"/>
+    <cellStyle name="Standard 2 3" xfId="2"/>
+    <cellStyle name="wissenschaft-Eingabe 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1374,7 +1379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1268E965-30D4-48D3-8341-1094DF214E81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -5895,11 +5900,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7843701-3BEE-4BE4-904D-9ACA0C7095AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I297"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6024,7 +6029,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -6047,7 +6052,7 @@
         <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -6221,7 +6226,7 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -6241,7 +6246,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F27" t="s">
         <v>31</v>
@@ -6261,7 +6266,7 @@
         <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F28" t="s">
         <v>31</v>
@@ -6307,7 +6312,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F30" t="s">
         <v>31</v>
@@ -6327,7 +6332,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -6469,7 +6474,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F44" t="s">
         <v>31</v>
@@ -6489,7 +6494,7 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F45" t="s">
         <v>31</v>
@@ -6500,7 +6505,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c r="B46" s="9">
         <v>0.10339</v>
@@ -6509,7 +6514,7 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F46" t="s">
         <v>31</v>
@@ -6529,7 +6534,7 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F47" t="s">
         <v>31</v>
@@ -6549,7 +6554,7 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F48" t="s">
         <v>34</v>
@@ -6569,7 +6574,7 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F49" t="s">
         <v>31</v>
@@ -6589,7 +6594,7 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F50" t="s">
         <v>31</v>
@@ -6612,7 +6617,7 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F51" t="s">
         <v>31</v>
@@ -6632,7 +6637,7 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F52" t="s">
         <v>31</v>
@@ -6652,7 +6657,7 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F53" t="s">
         <v>31</v>
@@ -6672,7 +6677,7 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F54" t="s">
         <v>31</v>
@@ -6692,7 +6697,7 @@
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F55" t="s">
         <v>31</v>
@@ -6712,7 +6717,7 @@
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F56" t="s">
         <v>31</v>
@@ -6735,7 +6740,7 @@
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F57" t="s">
         <v>31</v>
@@ -6758,7 +6763,7 @@
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F58" t="s">
         <v>31</v>
@@ -6781,7 +6786,7 @@
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F59" t="s">
         <v>31</v>
@@ -6804,7 +6809,7 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F60" t="s">
         <v>25</v>
@@ -6827,7 +6832,7 @@
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F61" t="s">
         <v>25</v>
@@ -6850,7 +6855,7 @@
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F62" t="s">
         <v>31</v>
@@ -6870,7 +6875,7 @@
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F63" t="s">
         <v>25</v>
@@ -6893,7 +6898,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F64" t="s">
         <v>31</v>
@@ -6913,7 +6918,7 @@
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F65" t="s">
         <v>25</v>
@@ -6933,7 +6938,7 @@
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F66" t="s">
         <v>25</v>
@@ -6974,7 +6979,7 @@
         <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -6994,7 +6999,7 @@
         <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F69" t="s">
         <v>31</v>
@@ -7014,7 +7019,7 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F70" t="s">
         <v>31</v>
@@ -7034,7 +7039,7 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F71" t="s">
         <v>31</v>
@@ -7057,7 +7062,7 @@
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F72" t="s">
         <v>34</v>
@@ -7077,7 +7082,7 @@
         <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F73" t="s">
         <v>34</v>
@@ -7097,7 +7102,7 @@
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F74" t="s">
         <v>34</v>
@@ -7117,7 +7122,7 @@
         <v>68</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F75" t="s">
         <v>34</v>
@@ -7137,7 +7142,7 @@
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F76" t="s">
         <v>34</v>
@@ -7311,7 +7316,7 @@
         <v>79</v>
       </c>
       <c r="D92" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F92" t="s">
         <v>34</v>
@@ -7352,7 +7357,7 @@
         <v>26</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>31</v>
@@ -7372,7 +7377,7 @@
         <v>26</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F95" t="s">
         <v>31</v>
@@ -7392,7 +7397,7 @@
         <v>26</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F96" t="s">
         <v>31</v>
@@ -7529,7 +7534,7 @@
         <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F109" t="s">
         <v>34</v>
@@ -7552,7 +7557,7 @@
         <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F110" t="s">
         <v>34</v>
@@ -7572,7 +7577,7 @@
         <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F111" t="s">
         <v>34</v>
@@ -7592,7 +7597,7 @@
         <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F112" t="s">
         <v>31</v>
@@ -7612,7 +7617,7 @@
         <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F113" t="s">
         <v>34</v>
@@ -7632,7 +7637,7 @@
         <v>13</v>
       </c>
       <c r="D114" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F114" t="s">
         <v>31</v>
@@ -7652,7 +7657,7 @@
         <v>13</v>
       </c>
       <c r="D115" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F115" t="s">
         <v>34</v>
@@ -7672,7 +7677,7 @@
         <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F116" t="s">
         <v>34</v>
@@ -7692,7 +7697,7 @@
         <v>13</v>
       </c>
       <c r="D117" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F117" t="s">
         <v>34</v>
@@ -7712,7 +7717,7 @@
         <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F118" t="s">
         <v>34</v>
@@ -7732,7 +7737,7 @@
         <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F119" t="s">
         <v>34</v>
@@ -7752,7 +7757,7 @@
         <v>13</v>
       </c>
       <c r="D120" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F120" t="s">
         <v>34</v>
@@ -7772,7 +7777,7 @@
         <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F121" t="s">
         <v>31</v>
@@ -7792,7 +7797,7 @@
         <v>13</v>
       </c>
       <c r="D122" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F122" t="s">
         <v>34</v>
@@ -7812,7 +7817,7 @@
         <v>13</v>
       </c>
       <c r="D123" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F123" t="s">
         <v>34</v>
@@ -7832,7 +7837,7 @@
         <v>13</v>
       </c>
       <c r="D124" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F124" t="s">
         <v>34</v>
@@ -7852,7 +7857,7 @@
         <v>13</v>
       </c>
       <c r="D125" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F125" t="s">
         <v>31</v>
@@ -7872,7 +7877,7 @@
         <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F126" t="s">
         <v>31</v>
@@ -7892,7 +7897,7 @@
         <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F127" t="s">
         <v>34</v>
@@ -7912,7 +7917,7 @@
         <v>13</v>
       </c>
       <c r="D128" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F128" t="s">
         <v>31</v>
@@ -7932,7 +7937,7 @@
         <v>13</v>
       </c>
       <c r="D129" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F129" t="s">
         <v>34</v>
@@ -7955,7 +7960,7 @@
         <v>13</v>
       </c>
       <c r="D130" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F130" t="s">
         <v>31</v>
@@ -7975,7 +7980,7 @@
         <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F131" t="s">
         <v>34</v>
@@ -8016,7 +8021,7 @@
         <v>37</v>
       </c>
       <c r="D133" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F133" t="s">
         <v>31</v>
@@ -8036,7 +8041,7 @@
         <v>40</v>
       </c>
       <c r="D134" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F134" s="18" t="s">
         <v>31</v>
@@ -8056,7 +8061,7 @@
         <v>40</v>
       </c>
       <c r="D135" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>34</v>
@@ -8076,7 +8081,7 @@
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F136" t="s">
         <v>31</v>
@@ -8096,7 +8101,7 @@
         <v>26</v>
       </c>
       <c r="D137" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F137" t="s">
         <v>31</v>
@@ -8116,7 +8121,7 @@
         <v>26</v>
       </c>
       <c r="D138" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -8136,7 +8141,7 @@
         <v>68</v>
       </c>
       <c r="D139" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F139" t="s">
         <v>31</v>
@@ -8156,7 +8161,7 @@
         <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F140" t="s">
         <v>31</v>
@@ -8176,7 +8181,7 @@
         <v>13</v>
       </c>
       <c r="D141" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F141" t="s">
         <v>34</v>
@@ -8577,7 +8582,7 @@
         <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F174" t="s">
         <v>31</v>
@@ -8597,7 +8602,7 @@
         <v>13</v>
       </c>
       <c r="D175" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F175" t="s">
         <v>31</v>
@@ -8617,7 +8622,7 @@
         <v>13</v>
       </c>
       <c r="D176" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F176" t="s">
         <v>31</v>
@@ -8637,7 +8642,7 @@
         <v>13</v>
       </c>
       <c r="D177" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F177" t="s">
         <v>25</v>
@@ -8657,7 +8662,7 @@
         <v>13</v>
       </c>
       <c r="D178" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F178" t="s">
         <v>31</v>
@@ -8677,7 +8682,7 @@
         <v>13</v>
       </c>
       <c r="D179" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F179" t="s">
         <v>25</v>
@@ -8697,7 +8702,7 @@
         <v>13</v>
       </c>
       <c r="D180" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F180" t="s">
         <v>25</v>
@@ -8717,7 +8722,7 @@
         <v>13</v>
       </c>
       <c r="D181" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F181" t="s">
         <v>31</v>
@@ -8737,7 +8742,7 @@
         <v>13</v>
       </c>
       <c r="D182" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F182" t="s">
         <v>25</v>
@@ -8757,7 +8762,7 @@
         <v>13</v>
       </c>
       <c r="D183" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F183" t="s">
         <v>31</v>
@@ -8777,7 +8782,7 @@
         <v>13</v>
       </c>
       <c r="D184" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F184" t="s">
         <v>31</v>
@@ -8821,7 +8826,7 @@
         <v>37</v>
       </c>
       <c r="D186" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F186" t="s">
         <v>31</v>
@@ -8841,7 +8846,7 @@
         <v>26</v>
       </c>
       <c r="D187" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F187" t="s">
         <v>31</v>
@@ -8861,7 +8866,7 @@
         <v>26</v>
       </c>
       <c r="D188" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F188" t="s">
         <v>10</v>
@@ -8881,7 +8886,7 @@
         <v>40</v>
       </c>
       <c r="D189" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F189" t="s">
         <v>31</v>
@@ -8901,7 +8906,7 @@
         <v>13</v>
       </c>
       <c r="D190" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F190" t="s">
         <v>25</v>
@@ -8921,7 +8926,7 @@
         <v>13</v>
       </c>
       <c r="D191" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F191" t="s">
         <v>31</v>
@@ -8941,7 +8946,7 @@
         <v>68</v>
       </c>
       <c r="D192" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F192" t="s">
         <v>25</v>
@@ -9194,7 +9199,7 @@
         <v>37</v>
       </c>
       <c r="D214" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F214" t="s">
         <v>10</v>
@@ -9214,7 +9219,7 @@
         <v>13</v>
       </c>
       <c r="D215" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F215" t="s">
         <v>31</v>
@@ -9234,7 +9239,7 @@
         <v>13</v>
       </c>
       <c r="D216" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F216" t="s">
         <v>25</v>
@@ -9254,7 +9259,7 @@
         <v>13</v>
       </c>
       <c r="D217" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F217" t="s">
         <v>24</v>
@@ -9274,7 +9279,7 @@
         <v>13</v>
       </c>
       <c r="D218" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F218" t="s">
         <v>31</v>
@@ -9294,7 +9299,7 @@
         <v>13</v>
       </c>
       <c r="D219" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F219" t="s">
         <v>31</v>
@@ -9314,7 +9319,7 @@
         <v>26</v>
       </c>
       <c r="D220" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="E220"/>
       <c r="F220" t="s">
@@ -9336,7 +9341,7 @@
         <v>26</v>
       </c>
       <c r="D221" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F221" t="s">
         <v>31</v>
@@ -9356,7 +9361,7 @@
         <v>68</v>
       </c>
       <c r="D222" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F222" t="s">
         <v>31</v>
@@ -9376,7 +9381,7 @@
         <v>12</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F223" t="s">
         <v>31</v>
@@ -9521,7 +9526,7 @@
         <v>37</v>
       </c>
       <c r="D238" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F238" t="s">
         <v>201</v>
@@ -9542,7 +9547,7 @@
         <v>37</v>
       </c>
       <c r="D239" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F239" t="s">
         <v>203</v>
@@ -9563,7 +9568,7 @@
         <v>37</v>
       </c>
       <c r="D240" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F240" t="s">
         <v>204</v>
@@ -9584,7 +9589,7 @@
         <v>37</v>
       </c>
       <c r="D241" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F241" t="s">
         <v>205</v>
@@ -9605,7 +9610,7 @@
         <v>37</v>
       </c>
       <c r="D242" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F242" t="s">
         <v>206</v>
@@ -9626,7 +9631,7 @@
         <v>37</v>
       </c>
       <c r="D243" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F243" t="s">
         <v>207</v>
@@ -9646,7 +9651,7 @@
         <v>37</v>
       </c>
       <c r="D244" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F244" t="s">
         <v>209</v>
@@ -9666,7 +9671,7 @@
         <v>37</v>
       </c>
       <c r="D245" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F245" t="s">
         <v>210</v>
@@ -9686,7 +9691,7 @@
         <v>37</v>
       </c>
       <c r="D246" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F246" t="s">
         <v>212</v>
@@ -9706,7 +9711,7 @@
         <v>37</v>
       </c>
       <c r="D247" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F247" t="s">
         <v>212</v>
@@ -9726,7 +9731,7 @@
         <v>37</v>
       </c>
       <c r="D248" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F248" t="s">
         <v>213</v>
@@ -9746,7 +9751,7 @@
         <v>37</v>
       </c>
       <c r="D249" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F249" t="s">
         <v>214</v>
@@ -9766,7 +9771,7 @@
         <v>37</v>
       </c>
       <c r="D250" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F250" t="s">
         <v>201</v>
@@ -9786,7 +9791,7 @@
         <v>37</v>
       </c>
       <c r="D251" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F251" t="s">
         <v>201</v>
@@ -9806,7 +9811,7 @@
         <v>37</v>
       </c>
       <c r="D252" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F252" t="s">
         <v>201</v>
@@ -9826,7 +9831,7 @@
         <v>37</v>
       </c>
       <c r="D253" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F253" t="s">
         <v>218</v>
@@ -9846,7 +9851,7 @@
         <v>37</v>
       </c>
       <c r="D254" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F254" t="s">
         <v>218</v>
@@ -9866,7 +9871,7 @@
         <v>37</v>
       </c>
       <c r="D255" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F255" t="s">
         <v>218</v>
@@ -9886,7 +9891,7 @@
         <v>37</v>
       </c>
       <c r="D256" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F256" t="s">
         <v>219</v>
@@ -9906,7 +9911,7 @@
         <v>37</v>
       </c>
       <c r="D257" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F257" t="s">
         <v>219</v>
@@ -9926,7 +9931,7 @@
         <v>37</v>
       </c>
       <c r="D258" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F258" t="s">
         <v>219</v>
@@ -9946,7 +9951,7 @@
         <v>37</v>
       </c>
       <c r="D259" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F259" t="s">
         <v>205</v>
@@ -9966,7 +9971,7 @@
         <v>37</v>
       </c>
       <c r="D260" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F260" t="s">
         <v>221</v>
@@ -9986,7 +9991,7 @@
         <v>37</v>
       </c>
       <c r="D261" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F261" t="s">
         <v>205</v>
@@ -10006,7 +10011,7 @@
         <v>37</v>
       </c>
       <c r="D262" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F262" t="s">
         <v>224</v>
@@ -10026,7 +10031,7 @@
         <v>37</v>
       </c>
       <c r="D263" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F263" t="s">
         <v>224</v>
@@ -10046,7 +10051,7 @@
         <v>37</v>
       </c>
       <c r="D264" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F264" t="s">
         <v>224</v>
@@ -10066,7 +10071,7 @@
         <v>13</v>
       </c>
       <c r="D265" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F265" t="s">
         <v>34</v>
@@ -10086,7 +10091,7 @@
         <v>231</v>
       </c>
       <c r="D266" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="E266"/>
       <c r="F266" t="s">
@@ -10107,7 +10112,7 @@
         <v>13</v>
       </c>
       <c r="D267" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="E267" t="s">
         <v>88</v>
@@ -10205,7 +10210,7 @@
         <v>37</v>
       </c>
       <c r="D277" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F277" t="s">
         <v>219</v>
@@ -10225,7 +10230,7 @@
         <v>37</v>
       </c>
       <c r="D278" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F278" t="s">
         <v>219</v>
@@ -10245,7 +10250,7 @@
         <v>37</v>
       </c>
       <c r="D279" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F279" t="s">
         <v>219</v>
@@ -10265,7 +10270,7 @@
         <v>37</v>
       </c>
       <c r="D280" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F280" t="s">
         <v>224</v>
@@ -10285,7 +10290,7 @@
         <v>37</v>
       </c>
       <c r="D281" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F281" t="s">
         <v>224</v>
@@ -10305,7 +10310,7 @@
         <v>37</v>
       </c>
       <c r="D282" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F282" t="s">
         <v>224</v>
@@ -10325,7 +10330,7 @@
         <v>37</v>
       </c>
       <c r="D283" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F283" t="s">
         <v>204</v>
@@ -10345,7 +10350,7 @@
         <v>37</v>
       </c>
       <c r="D284" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F284" t="s">
         <v>204</v>
@@ -10365,7 +10370,7 @@
         <v>37</v>
       </c>
       <c r="D285" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F285" t="s">
         <v>204</v>
@@ -10385,7 +10390,7 @@
         <v>37</v>
       </c>
       <c r="D286" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F286" t="s">
         <v>204</v>
@@ -10405,7 +10410,7 @@
         <v>37</v>
       </c>
       <c r="D287" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F287" t="s">
         <v>209</v>
@@ -10425,7 +10430,7 @@
         <v>37</v>
       </c>
       <c r="D288" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F288" t="s">
         <v>209</v>
@@ -10445,7 +10450,7 @@
         <v>37</v>
       </c>
       <c r="D289" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F289" t="s">
         <v>206</v>
@@ -10465,7 +10470,7 @@
         <v>37</v>
       </c>
       <c r="D290" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F290" t="s">
         <v>206</v>
@@ -10485,7 +10490,7 @@
         <v>37</v>
       </c>
       <c r="D291" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F291" t="s">
         <v>201</v>
@@ -10505,7 +10510,7 @@
         <v>37</v>
       </c>
       <c r="D292" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F292" t="s">
         <v>201</v>
@@ -10525,7 +10530,7 @@
         <v>37</v>
       </c>
       <c r="D293" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F293" t="s">
         <v>201</v>
@@ -10565,7 +10570,7 @@
         <v>13</v>
       </c>
       <c r="D295" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F295" t="s">
         <v>34</v>
@@ -10585,7 +10590,7 @@
         <v>231</v>
       </c>
       <c r="D296" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F296" t="s">
         <v>31</v>
@@ -10605,7 +10610,7 @@
         <v>13</v>
       </c>
       <c r="D297" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="E297" t="s">
         <v>88</v>
@@ -10621,7 +10626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB01E60A-ADED-4E35-AC84-2F68E84004E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -11855,15 +11860,15 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Do not enter anything into these fields. _x000a__x000a_Entering the Index-Number in column A will update these fields accordingly (maybe you need to press &quot;F9&quot; to have Excel recalculate the fields). Be sure to have the names-list open._x000a_" sqref="A11:A16 C11:C16 F11:F16 F76:F81 C27:C32 F27:F32 A44:A49 C44:C49 F44:F49 A60:A65 C60:C65 F60:F65 A76:A81 C76:C81 A27:A28 A30:A32" xr:uid="{9E1DFDC3-0093-411D-862F-687B1214E040}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Mean amount of elementary flow or intermediate product flow. Enter your values (or the respective equation) here." sqref="B11:B16 B27:B32 B44:B49 B60:B65 B76:B81" xr:uid="{542CA0A5-FC09-4697-A620-E08D4FE8B29A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Do not enter anything into these fields. _x000a__x000a_Entering the Index-Number in column A will update these fields accordingly (maybe you need to press &quot;F9&quot; to have Excel recalculate the fields). Be sure to have the names-list open._x000a_" sqref="A11:A16 C11:C16 F11:F16 F76:F81 C27:C32 F27:F32 A44:A49 C44:C49 F44:F49 A60:A65 C60:C65 F60:F65 A76:A81 C76:C81 A27:A28 A30:A32"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Mean amount of elementary flow or intermediate product flow. Enter your values (or the respective equation) here." sqref="B11:B16 B27:B32 B44:B49 B60:B65 B76:B81"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CDE38C-3A7D-494C-B894-B3D81555CF89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -16383,7 +16388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A1B1AD-E5A2-4A32-8B18-19A472903E6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I297"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -21109,21 +21114,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008B99206B7DC69543AE34BCFBD34E33AE" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="075500c07a6b4cedf2f211c962ddf63c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9df43d4f-f25a-4c61-bbc2-7515b39020c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fc67ce68b0b1abce75b627b593138d8" ns3:_="">
     <xsd:import namespace="9df43d4f-f25a-4c61-bbc2-7515b39020c0"/>
@@ -21269,10 +21259,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFB2C521-9248-407E-ACEC-FA01CBCAF755}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9df43d4f-f25a-4c61-bbc2-7515b39020c0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21294,19 +21309,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFB2C521-9248-407E-ACEC-FA01CBCAF755}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9df43d4f-f25a-4c61-bbc2-7515b39020c0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>